--- a/target/test-classes/Excel/loginDataProvider.xlsx
+++ b/target/test-classes/Excel/loginDataProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johnkelvin/Desktop/Personal/betika/src/test/java/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E990EE-3F2E-E942-96BE-063E63E7D159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5F000-1789-164C-9816-9E61A91733F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{00A30DF3-169C-A14A-BB60-04795834C19A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Phone</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Pass48963627@test</t>
-  </si>
-  <si>
-    <t>0714729091</t>
-  </si>
-  <si>
     <t>0712943180</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
   </si>
   <si>
     <t>254735638271</t>
-  </si>
-  <si>
-    <t>9045563232</t>
   </si>
 </sst>
 </file>
@@ -418,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73996A4D-76E7-6D4B-83E2-B90C1249B298}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +431,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
@@ -448,42 +439,28 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2010</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Pass48963627@test" xr:uid="{F58ED1A6-3D96-4A4B-BF5B-117DC82A0BA1}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{74EEE9B3-E09B-6A46-9781-E5A722759873}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B45FC0FE-7DE4-764E-8B7D-E3E6A6248857}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{5E60B3AC-A667-EF4F-B22E-CEEFF86FF249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
